--- a/public/import/weekly_template (2).xlsx
+++ b/public/import/weekly_template (2).xlsx
@@ -5,21 +5,21 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -39,66 +39,54 @@
     <t>NON</t>
   </si>
   <si>
-    <t>RESULT</t>
-  </si>
-  <si>
-    <t>CTR FB Ads 4%</t>
-  </si>
-  <si>
-    <t>Talent (Live, Yt, BH)</t>
-  </si>
-  <si>
-    <t>Post IG brand shop (12)</t>
-  </si>
-  <si>
-    <t>Reels IG MSIS</t>
-  </si>
-  <si>
-    <t>Lead Generations</t>
-  </si>
-  <si>
-    <t>Lead Convertions</t>
-  </si>
-  <si>
-    <t>Konsep Landing Page</t>
-  </si>
-  <si>
-    <t>Post Tiktok</t>
-  </si>
-  <si>
-    <t>Daily brief</t>
-  </si>
-  <si>
-    <t>Kirim AMPM tepat waktu</t>
-  </si>
-  <si>
-    <t>Optim FB Ads dibawah 2%</t>
-  </si>
-  <si>
-    <t>Balas komen iklan di FB</t>
-  </si>
-  <si>
-    <t>Balas komen di IG</t>
-  </si>
-  <si>
-    <t>Monitoring WA</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printout Stok opname &amp; beres  gudang GJKT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring orderan acc Oraimo TOP-WJO &amp; TOP-CJO </t>
+  </si>
+  <si>
+    <t>Pembuatan sales order ( SO ) di csa CV.TOP</t>
+  </si>
+  <si>
+    <t>Proses pembuatan surat jalan ( SJ ) di csa CV.TOP</t>
+  </si>
+  <si>
+    <t>Proses Packing orderan Grosir &amp; Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembuatan surat serah terima barang orderan Grosir </t>
+  </si>
+  <si>
+    <t>Konfirmasi barang datang dan input pembelian barang datang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring pengiriman Driver JKT, via Rax dan Sentral Cargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proses SJ Blibli JD.ID   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proses alokasi grosir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekap Qc orderan Grosir </t>
+  </si>
+  <si>
+    <t>Bongkaran acc oraimo 1 kontianer di dadap tanggerang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +111,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,176 +416,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A3" sqref="A3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
+      <c r="A2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2022</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
+      <c r="A3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
+      <c r="A6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
+      <c r="A7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>24</v>
+      <c r="A8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
+      <c r="A9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>24</v>
+      <c r="A10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -607,11 +573,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
+      <c r="A11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -621,11 +587,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
+      <c r="A12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -635,44 +601,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
+      <c r="A13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
